--- a/biology/Zoologie/Amphisbaenidae/Amphisbaenidae.xlsx
+++ b/biology/Zoologie/Amphisbaenidae/Amphisbaenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amphisbaenidae sont une famille de reptiles du sous-ordre des Amphisbaenia (les amphisbènes). Elle a été créée par John Edward Gray en 1865.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent dans le sud de l'Afrique, en Europe
 et en Amérique.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les divers membres de cette famille se caractérisent par une absence de pattes. 
 </t>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (19 juil. 2011)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (19 juil. 2011) :
 Amphisbaena Linnaeus, 1758
 Ancylocranium Parker, 1942
 Baikia Gray, 1865
@@ -588,7 +606,7 @@
 Mesobaena Mertens, 1925
 Monopeltis Smith, 1848
 Zygaspis Cope, 1885
-Les genres Anops, Aulura, Bronia, Cercolophia et Leposternon ont été placés en synonymie avec Amphisbaena[2].
+Les genres Anops, Aulura, Bronia, Cercolophia et Leposternon ont été placés en synonymie avec Amphisbaena.
 </t>
         </is>
       </c>
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1865 : A revision of the genera and species of amphisbaenians with the descriptions of some new species now in the collection of the British Museum. Proceedings of the Zoological Society of London, vol. 1865, p. 442-455 (texte intégral).</t>
         </is>
